--- a/zp_galuzi.XLSX
+++ b/zp_galuzi.XLSX
@@ -481,7 +481,7 @@
   <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Y13"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
